--- a/data/mingri/5-32_tips.xlsx
+++ b/data/mingri/5-32_tips.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PythonBooks\Python数据分析从入门到实践\Program\05\5.6\箱型图\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangrun/Documents/workspace/github/jupyter-test/data/mingri/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33A5D9F-C9D7-4243-89C3-4AD0BB2F03C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="5895"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19500" windowHeight="12160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,10 +59,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>周几</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用餐类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -81,12 +78,16 @@
     <t>女性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>星期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +99,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -459,19 +461,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -484,17 +486,17 @@
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>16.989999999999998</v>
       </c>
@@ -502,7 +504,7 @@
         <v>1.01</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -511,13 +513,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>24.59</v>
       </c>
@@ -525,7 +527,7 @@
         <v>3.61</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -534,13 +536,13 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>35.26</v>
       </c>
@@ -548,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -557,13 +559,13 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>14.83</v>
       </c>
@@ -571,7 +573,7 @@
         <v>3.02</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -580,13 +582,13 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>10.33</v>
       </c>
@@ -594,7 +596,7 @@
         <v>1.67</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -603,13 +605,13 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>16.97</v>
       </c>
@@ -617,7 +619,7 @@
         <v>3.5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -626,13 +628,13 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>20.29</v>
       </c>
@@ -640,7 +642,7 @@
         <v>2.75</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -649,13 +651,13 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>15.77</v>
       </c>
@@ -663,7 +665,7 @@
         <v>2.23</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -672,13 +674,13 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>19.649999999999999</v>
       </c>
@@ -686,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -695,13 +697,13 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>15.06</v>
       </c>
@@ -709,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -718,13 +720,13 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>20.69</v>
       </c>
@@ -732,7 +734,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -741,13 +743,13 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>16.93</v>
       </c>
@@ -755,7 +757,7 @@
         <v>3.07</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -764,13 +766,13 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>10.29</v>
       </c>
@@ -778,7 +780,7 @@
         <v>2.6</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -787,13 +789,13 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>34.81</v>
       </c>
@@ -801,7 +803,7 @@
         <v>5.2</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -810,13 +812,13 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>26.41</v>
       </c>
@@ -824,7 +826,7 @@
         <v>1.5</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -833,13 +835,13 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16.45</v>
       </c>
@@ -847,7 +849,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -856,13 +858,13 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>3.07</v>
       </c>
@@ -870,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -879,13 +881,13 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>17.07</v>
       </c>
@@ -893,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -902,13 +904,13 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>26.86</v>
       </c>
@@ -916,7 +918,7 @@
         <v>3.14</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -925,13 +927,13 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>25.28</v>
       </c>
@@ -939,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -948,13 +950,13 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>14.73</v>
       </c>
@@ -962,7 +964,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -971,13 +973,13 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>5.75</v>
       </c>
@@ -985,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -994,13 +996,13 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>16.32</v>
       </c>
@@ -1008,7 +1010,7 @@
         <v>4.3</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -1017,13 +1019,13 @@
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>22.75</v>
       </c>
@@ -1031,7 +1033,7 @@
         <v>3.25</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -1040,13 +1042,13 @@
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>11.35</v>
       </c>
@@ -1054,7 +1056,7 @@
         <v>2.5</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -1063,13 +1065,13 @@
         <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>15.38</v>
       </c>
@@ -1077,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -1086,13 +1088,13 @@
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>44.3</v>
       </c>
@@ -1100,7 +1102,7 @@
         <v>2.5</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -1109,13 +1111,13 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>22.42</v>
       </c>
@@ -1123,7 +1125,7 @@
         <v>3.48</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -1132,13 +1134,13 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>20.92</v>
       </c>
@@ -1146,7 +1148,7 @@
         <v>4.08</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
@@ -1155,13 +1157,13 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>14.31</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -1178,13 +1180,13 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>7.25</v>
       </c>
@@ -1192,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
@@ -1201,13 +1203,13 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>25.71</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
@@ -1224,13 +1226,13 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>17.309999999999999</v>
       </c>
@@ -1238,7 +1240,7 @@
         <v>3.5</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
@@ -1247,13 +1249,13 @@
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>29.85</v>
       </c>
@@ -1261,7 +1263,7 @@
         <v>5.14</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
@@ -1270,13 +1272,13 @@
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>25</v>
       </c>
@@ -1284,7 +1286,7 @@
         <v>3.75</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
@@ -1293,13 +1295,13 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>13.39</v>
       </c>
@@ -1307,7 +1309,7 @@
         <v>2.61</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
@@ -1316,13 +1318,13 @@
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>16.21</v>
       </c>
@@ -1330,7 +1332,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
@@ -1339,13 +1341,13 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>17.510000000000002</v>
       </c>
@@ -1353,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -1362,13 +1364,13 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>10.59</v>
       </c>
@@ -1376,7 +1378,7 @@
         <v>1.61</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -1385,13 +1387,13 @@
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>10.63</v>
       </c>
@@ -1399,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
@@ -1408,13 +1410,13 @@
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>9.6</v>
       </c>
@@ -1422,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
@@ -1431,13 +1433,13 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>20.9</v>
       </c>
@@ -1445,7 +1447,7 @@
         <v>3.5</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -1454,13 +1456,13 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>18.149999999999999</v>
       </c>
@@ -1468,7 +1470,7 @@
         <v>3.5</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
@@ -1477,13 +1479,13 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>12.76</v>
       </c>
@@ -1491,7 +1493,7 @@
         <v>2.23</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
@@ -1500,13 +1502,13 @@
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>13.27</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>2.5</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -1523,13 +1525,13 @@
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>28.17</v>
       </c>
@@ -1537,7 +1539,7 @@
         <v>6.5</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -1546,13 +1548,13 @@
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>12.9</v>
       </c>
@@ -1560,7 +1562,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -1569,13 +1571,13 @@
         <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>30.14</v>
       </c>
@@ -1583,7 +1585,7 @@
         <v>3.09</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -1592,13 +1594,13 @@
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>22.12</v>
       </c>
@@ -1606,7 +1608,7 @@
         <v>2.88</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -1615,13 +1617,13 @@
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>35.83</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>4.67</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
@@ -1638,13 +1640,13 @@
         <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>27.18</v>
       </c>
@@ -1652,7 +1654,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
@@ -1661,13 +1663,13 @@
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>18.78</v>
       </c>
@@ -1675,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
@@ -1684,13 +1686,13 @@
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>10.07</v>
       </c>
@@ -1698,7 +1700,7 @@
         <v>1.83</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
@@ -1707,13 +1709,13 @@
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>34.83</v>
       </c>
@@ -1721,7 +1723,7 @@
         <v>5.17</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
@@ -1730,13 +1732,13 @@
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>10.65</v>
       </c>
@@ -1744,7 +1746,7 @@
         <v>1.5</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
@@ -1753,13 +1755,13 @@
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>12.43</v>
       </c>
@@ -1767,7 +1769,7 @@
         <v>1.8</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -1776,13 +1778,13 @@
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>24.08</v>
       </c>
@@ -1790,7 +1792,7 @@
         <v>2.92</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
@@ -1799,13 +1801,13 @@
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G58">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>13.42</v>
       </c>
@@ -1813,7 +1815,7 @@
         <v>1.68</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -1822,13 +1824,13 @@
         <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>12.48</v>
       </c>
@@ -1836,7 +1838,7 @@
         <v>2.52</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -1845,13 +1847,13 @@
         <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>29.8</v>
       </c>
@@ -1859,7 +1861,7 @@
         <v>4.2</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -1868,13 +1870,13 @@
         <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>14.52</v>
       </c>
@@ -1882,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
@@ -1891,13 +1893,13 @@
         <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>11.38</v>
       </c>
@@ -1905,7 +1907,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
@@ -1914,13 +1916,13 @@
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>20.27</v>
       </c>
@@ -1928,7 +1930,7 @@
         <v>2.83</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
@@ -1937,13 +1939,13 @@
         <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>11.17</v>
       </c>
@@ -1951,7 +1953,7 @@
         <v>1.5</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
         <v>1</v>
@@ -1960,13 +1962,13 @@
         <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>12.26</v>
       </c>
@@ -1974,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
@@ -1983,13 +1985,13 @@
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>18.260000000000002</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>3.25</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
@@ -2006,13 +2008,13 @@
         <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>8.51</v>
       </c>
@@ -2020,7 +2022,7 @@
         <v>1.25</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
@@ -2029,13 +2031,13 @@
         <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>10.33</v>
       </c>
@@ -2043,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
         <v>1</v>
@@ -2052,13 +2054,13 @@
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>14.15</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
@@ -2075,13 +2077,13 @@
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>13.16</v>
       </c>
@@ -2089,7 +2091,7 @@
         <v>2.75</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
@@ -2098,13 +2100,13 @@
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>17.47</v>
       </c>
@@ -2112,7 +2114,7 @@
         <v>3.5</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
@@ -2121,13 +2123,13 @@
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>27.05</v>
       </c>
@@ -2135,7 +2137,7 @@
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
@@ -2144,13 +2146,13 @@
         <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G73">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>16.43</v>
       </c>
@@ -2158,7 +2160,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
@@ -2167,13 +2169,13 @@
         <v>5</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>8.35</v>
       </c>
@@ -2181,7 +2183,7 @@
         <v>1.5</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
@@ -2190,13 +2192,13 @@
         <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>18.64</v>
       </c>
@@ -2204,7 +2206,7 @@
         <v>1.36</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
@@ -2213,13 +2215,13 @@
         <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G76">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>11.87</v>
       </c>
@@ -2227,7 +2229,7 @@
         <v>1.63</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
@@ -2236,13 +2238,13 @@
         <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>19.809999999999999</v>
       </c>
@@ -2250,7 +2252,7 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
@@ -2259,13 +2261,13 @@
         <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G78">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>43.11</v>
       </c>
@@ -2273,7 +2275,7 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
@@ -2282,13 +2284,13 @@
         <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G79">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>13</v>
       </c>
@@ -2296,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
@@ -2305,13 +2307,13 @@
         <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>12.74</v>
       </c>
@@ -2319,7 +2321,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
@@ -2328,13 +2330,13 @@
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>13</v>
       </c>
@@ -2342,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
@@ -2351,13 +2353,13 @@
         <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>16.399999999999999</v>
       </c>
@@ -2365,7 +2367,7 @@
         <v>2.5</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
@@ -2374,13 +2376,13 @@
         <v>5</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>16.47</v>
       </c>
@@ -2388,7 +2390,7 @@
         <v>3.23</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
@@ -2397,13 +2399,13 @@
         <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G84">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>13.42</v>
       </c>
@@ -2411,7 +2413,7 @@
         <v>3.48</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
         <v>4</v>
@@ -2420,13 +2422,13 @@
         <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G85">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>15.98</v>
       </c>
@@ -2434,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
         <v>1</v>
@@ -2443,13 +2445,13 @@
         <v>6</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G86">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>16.27</v>
       </c>
@@ -2457,7 +2459,7 @@
         <v>2.5</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
@@ -2466,13 +2468,13 @@
         <v>6</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G87">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>10.09</v>
       </c>
@@ -2480,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
@@ -2489,13 +2491,13 @@
         <v>6</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>10.34</v>
       </c>
@@ -2503,7 +2505,7 @@
         <v>1.66</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
         <v>1</v>
@@ -2512,13 +2514,13 @@
         <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G89">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>21.01</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>3.5</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
         <v>1</v>
@@ -2535,13 +2537,13 @@
         <v>2</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G90">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>23.68</v>
       </c>
@@ -2549,7 +2551,7 @@
         <v>3.31</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
         <v>1</v>
@@ -2558,13 +2560,13 @@
         <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G91">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>25.29</v>
       </c>
@@ -2572,7 +2574,7 @@
         <v>4.71</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
         <v>1</v>
@@ -2581,13 +2583,13 @@
         <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G92">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>8.77</v>
       </c>
@@ -2595,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
         <v>1</v>
@@ -2604,13 +2606,13 @@
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>26.88</v>
       </c>
@@ -2618,7 +2620,7 @@
         <v>3.12</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
@@ -2627,13 +2629,13 @@
         <v>2</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G94">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>15.04</v>
       </c>
@@ -2641,7 +2643,7 @@
         <v>1.96</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
         <v>1</v>
@@ -2650,13 +2652,13 @@
         <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G95">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>14.78</v>
       </c>
@@ -2664,7 +2666,7 @@
         <v>3.23</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
         <v>1</v>
@@ -2673,13 +2675,13 @@
         <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G96">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>10.27</v>
       </c>
@@ -2687,7 +2689,7 @@
         <v>1.71</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
         <v>1</v>
@@ -2696,13 +2698,13 @@
         <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G97">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>15.42</v>
       </c>
@@ -2710,7 +2712,7 @@
         <v>1.57</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
         <v>1</v>
@@ -2719,13 +2721,13 @@
         <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G98">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>18.43</v>
       </c>
@@ -2733,7 +2735,7 @@
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
         <v>1</v>
@@ -2742,13 +2744,13 @@
         <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G99">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>21.58</v>
       </c>
@@ -2756,7 +2758,7 @@
         <v>3.92</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
         <v>1</v>
@@ -2765,13 +2767,13 @@
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G100">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>16.29</v>
       </c>
@@ -2779,7 +2781,7 @@
         <v>3.71</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
         <v>1</v>
@@ -2788,13 +2790,13 @@
         <v>2</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G101">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>20.65</v>
       </c>
@@ -2802,7 +2804,7 @@
         <v>3.35</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -2811,13 +2813,13 @@
         <v>3</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G102">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>17.920000000000002</v>
       </c>
@@ -2825,7 +2827,7 @@
         <v>4.08</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
@@ -2834,13 +2836,13 @@
         <v>3</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G103">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>39.42</v>
       </c>
@@ -2848,7 +2850,7 @@
         <v>7.58</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
@@ -2857,13 +2859,13 @@
         <v>3</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G104">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>19.82</v>
       </c>
@@ -2871,7 +2873,7 @@
         <v>3.18</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
         <v>1</v>
@@ -2880,13 +2882,13 @@
         <v>3</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G105">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>17.809999999999999</v>
       </c>
@@ -2894,7 +2896,7 @@
         <v>2.34</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
         <v>1</v>
@@ -2903,13 +2905,13 @@
         <v>3</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G106">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>13.37</v>
       </c>
@@ -2917,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
         <v>1</v>
@@ -2926,13 +2928,13 @@
         <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G107">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>12.69</v>
       </c>
@@ -2940,7 +2942,7 @@
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
@@ -2949,13 +2951,13 @@
         <v>3</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G108">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>21.7</v>
       </c>
@@ -2963,7 +2965,7 @@
         <v>4.3</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
         <v>1</v>
@@ -2972,13 +2974,13 @@
         <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G109">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>9.5500000000000007</v>
       </c>
@@ -2986,7 +2988,7 @@
         <v>1.45</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
         <v>1</v>
@@ -2995,13 +2997,13 @@
         <v>3</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G110">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>18.350000000000001</v>
       </c>
@@ -3009,7 +3011,7 @@
         <v>2.5</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
         <v>1</v>
@@ -3018,13 +3020,13 @@
         <v>3</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G111">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>17.78</v>
       </c>
@@ -3032,7 +3034,7 @@
         <v>3.27</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
         <v>1</v>
@@ -3041,13 +3043,13 @@
         <v>3</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G112">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>24.06</v>
       </c>
@@ -3055,7 +3057,7 @@
         <v>3.6</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
         <v>1</v>
@@ -3064,13 +3066,13 @@
         <v>3</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G113">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>16.309999999999999</v>
       </c>
@@ -3078,7 +3080,7 @@
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
         <v>1</v>
@@ -3087,13 +3089,13 @@
         <v>3</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G114">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>18.690000000000001</v>
       </c>
@@ -3101,7 +3103,7 @@
         <v>2.31</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
         <v>1</v>
@@ -3110,13 +3112,13 @@
         <v>3</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G115">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>31.27</v>
       </c>
@@ -3124,7 +3126,7 @@
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
         <v>1</v>
@@ -3133,13 +3135,13 @@
         <v>3</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>16.04</v>
       </c>
@@ -3147,7 +3149,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
         <v>1</v>
@@ -3156,13 +3158,13 @@
         <v>3</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G117">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>17.46</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>2.54</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
         <v>1</v>
@@ -3179,13 +3181,13 @@
         <v>2</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G118">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>13.94</v>
       </c>
@@ -3193,7 +3195,7 @@
         <v>3.06</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
         <v>1</v>
@@ -3202,13 +3204,13 @@
         <v>2</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G119">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>9.68</v>
       </c>
@@ -3216,7 +3218,7 @@
         <v>1.32</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
         <v>1</v>
@@ -3225,13 +3227,13 @@
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G120">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>30.4</v>
       </c>
@@ -3239,7 +3241,7 @@
         <v>5.6</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
         <v>1</v>
@@ -3248,13 +3250,13 @@
         <v>2</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G121">
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>18.29</v>
       </c>
@@ -3262,7 +3264,7 @@
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
         <v>1</v>
@@ -3271,13 +3273,13 @@
         <v>2</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G122">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>22.23</v>
       </c>
@@ -3285,7 +3287,7 @@
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
         <v>1</v>
@@ -3294,13 +3296,13 @@
         <v>2</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G123">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>32.4</v>
       </c>
@@ -3308,7 +3310,7 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
         <v>1</v>
@@ -3317,13 +3319,13 @@
         <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G124">
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>28.55</v>
       </c>
@@ -3331,7 +3333,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
         <v>1</v>
@@ -3340,13 +3342,13 @@
         <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G125">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>18.04</v>
       </c>
@@ -3354,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
         <v>1</v>
@@ -3363,13 +3365,13 @@
         <v>2</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G126">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>12.54</v>
       </c>
@@ -3377,7 +3379,7 @@
         <v>2.5</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
         <v>1</v>
@@ -3386,13 +3388,13 @@
         <v>2</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G127">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>9.94</v>
       </c>
@@ -3400,7 +3402,7 @@
         <v>1.56</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
         <v>1</v>
@@ -3409,13 +3411,13 @@
         <v>2</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G128">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>25.56</v>
       </c>
@@ -3423,7 +3425,7 @@
         <v>4.34</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
         <v>1</v>
@@ -3432,13 +3434,13 @@
         <v>2</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G129">
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>19.489999999999998</v>
       </c>
@@ -3446,7 +3448,7 @@
         <v>3.51</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
         <v>1</v>
@@ -3455,13 +3457,13 @@
         <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G130">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>38.01</v>
       </c>
@@ -3469,7 +3471,7 @@
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -3478,13 +3480,13 @@
         <v>3</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G131">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>11.24</v>
       </c>
@@ -3492,7 +3494,7 @@
         <v>1.76</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
         <v>4</v>
@@ -3501,13 +3503,13 @@
         <v>3</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G132">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>48.27</v>
       </c>
@@ -3515,7 +3517,7 @@
         <v>6.73</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
         <v>1</v>
@@ -3524,13 +3526,13 @@
         <v>3</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G133">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>20.29</v>
       </c>
@@ -3538,7 +3540,7 @@
         <v>3.21</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
@@ -3547,13 +3549,13 @@
         <v>3</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G134">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>13.81</v>
       </c>
@@ -3561,7 +3563,7 @@
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D135" t="s">
         <v>4</v>
@@ -3570,13 +3572,13 @@
         <v>3</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G135">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>11.02</v>
       </c>
@@ -3584,7 +3586,7 @@
         <v>1.98</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
         <v>4</v>
@@ -3593,13 +3595,13 @@
         <v>3</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G136">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>18.29</v>
       </c>
@@ -3607,7 +3609,7 @@
         <v>3.76</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D137" t="s">
         <v>4</v>
@@ -3616,13 +3618,13 @@
         <v>3</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G137">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>17.59</v>
       </c>
@@ -3630,7 +3632,7 @@
         <v>2.64</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D138" t="s">
         <v>1</v>
@@ -3639,13 +3641,13 @@
         <v>3</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G138">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>20.079999999999998</v>
       </c>
@@ -3653,7 +3655,7 @@
         <v>3.15</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D139" t="s">
         <v>1</v>
@@ -3662,13 +3664,13 @@
         <v>3</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G139">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>20.23</v>
       </c>
@@ -3676,7 +3678,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
         <v>1</v>
@@ -3685,13 +3687,13 @@
         <v>3</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G140">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>15.01</v>
       </c>
@@ -3699,7 +3701,7 @@
         <v>2.09</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D141" t="s">
         <v>4</v>
@@ -3708,13 +3710,13 @@
         <v>3</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G141">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>12.02</v>
       </c>
@@ -3722,7 +3724,7 @@
         <v>1.97</v>
       </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
         <v>1</v>
@@ -3731,13 +3733,13 @@
         <v>3</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G142">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>10.51</v>
       </c>
@@ -3745,7 +3747,7 @@
         <v>1.25</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D143" t="s">
         <v>1</v>
@@ -3754,13 +3756,13 @@
         <v>3</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G143">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>17.920000000000002</v>
       </c>
@@ -3768,7 +3770,7 @@
         <v>3.08</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D144" t="s">
         <v>4</v>
@@ -3777,13 +3779,13 @@
         <v>3</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G144">
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>28.97</v>
       </c>
@@ -3791,7 +3793,7 @@
         <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D145" t="s">
         <v>4</v>
@@ -3800,13 +3802,13 @@
         <v>6</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G145">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>22.49</v>
       </c>
@@ -3814,7 +3816,7 @@
         <v>3.5</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
         <v>1</v>
@@ -3823,13 +3825,13 @@
         <v>6</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G146">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>40.17</v>
       </c>
@@ -3837,7 +3839,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
         <v>4</v>
@@ -3846,13 +3848,13 @@
         <v>6</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G147">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>27.28</v>
       </c>
@@ -3860,7 +3862,7 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
         <v>4</v>
@@ -3869,13 +3871,13 @@
         <v>6</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G148">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>12.03</v>
       </c>
@@ -3883,7 +3885,7 @@
         <v>1.5</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D149" t="s">
         <v>4</v>
@@ -3892,13 +3894,13 @@
         <v>6</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G149">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>21.01</v>
       </c>
@@ -3906,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D150" t="s">
         <v>4</v>
@@ -3915,13 +3917,13 @@
         <v>6</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G150">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>12.46</v>
       </c>
@@ -3929,7 +3931,7 @@
         <v>1.5</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D151" t="s">
         <v>1</v>
@@ -3938,13 +3940,13 @@
         <v>6</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G151">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>15.36</v>
       </c>
@@ -3952,7 +3954,7 @@
         <v>1.64</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
         <v>4</v>
@@ -3961,13 +3963,13 @@
         <v>3</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G152">
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>20.49</v>
       </c>
@@ -3975,7 +3977,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
         <v>4</v>
@@ -3984,13 +3986,13 @@
         <v>3</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G153">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>25.21</v>
       </c>
@@ -3998,7 +4000,7 @@
         <v>4.29</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
         <v>4</v>
@@ -4007,13 +4009,13 @@
         <v>3</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G154">
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>18.239999999999998</v>
       </c>
@@ -4021,7 +4023,7 @@
         <v>3.76</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
         <v>1</v>
@@ -4030,13 +4032,13 @@
         <v>3</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G155">
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>14</v>
       </c>
@@ -4044,7 +4046,7 @@
         <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
         <v>1</v>
@@ -4053,13 +4055,13 @@
         <v>3</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G156">
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>38.07</v>
       </c>
@@ -4067,7 +4069,7 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D157" t="s">
         <v>1</v>
@@ -4076,13 +4078,13 @@
         <v>2</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G157">
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>23.95</v>
       </c>
@@ -4090,7 +4092,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D158" t="s">
         <v>1</v>
@@ -4099,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G158">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>29.93</v>
       </c>
@@ -4113,7 +4115,7 @@
         <v>5.07</v>
       </c>
       <c r="C159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D159" t="s">
         <v>1</v>
@@ -4122,13 +4124,13 @@
         <v>2</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G159">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>14.07</v>
       </c>
@@ -4136,7 +4138,7 @@
         <v>2.5</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D160" t="s">
         <v>1</v>
@@ -4145,13 +4147,13 @@
         <v>2</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G160">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>13.13</v>
       </c>
@@ -4159,7 +4161,7 @@
         <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D161" t="s">
         <v>1</v>
@@ -4168,13 +4170,13 @@
         <v>2</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G161">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>17.260000000000002</v>
       </c>
@@ -4182,7 +4184,7 @@
         <v>2.74</v>
       </c>
       <c r="C162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D162" t="s">
         <v>1</v>
@@ -4191,13 +4193,13 @@
         <v>2</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G162">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>24.55</v>
       </c>
@@ -4205,7 +4207,7 @@
         <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D163" t="s">
         <v>1</v>
@@ -4214,13 +4216,13 @@
         <v>2</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G163">
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>19.77</v>
       </c>
@@ -4228,7 +4230,7 @@
         <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D164" t="s">
         <v>1</v>
@@ -4237,13 +4239,13 @@
         <v>2</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G164">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>48.17</v>
       </c>
@@ -4251,7 +4253,7 @@
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D165" t="s">
         <v>1</v>
@@ -4260,13 +4262,13 @@
         <v>2</v>
       </c>
       <c r="F165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G165">
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>16.489999999999998</v>
       </c>
@@ -4274,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D166" t="s">
         <v>1</v>
@@ -4283,13 +4285,13 @@
         <v>2</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G166">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>21.5</v>
       </c>
@@ -4297,7 +4299,7 @@
         <v>3.5</v>
       </c>
       <c r="C167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D167" t="s">
         <v>1</v>
@@ -4306,13 +4308,13 @@
         <v>2</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G167">
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>12.66</v>
       </c>
@@ -4320,7 +4322,7 @@
         <v>2.5</v>
       </c>
       <c r="C168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D168" t="s">
         <v>1</v>
@@ -4329,13 +4331,13 @@
         <v>2</v>
       </c>
       <c r="F168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G168">
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>13.81</v>
       </c>
@@ -4343,7 +4345,7 @@
         <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D169" t="s">
         <v>1</v>
@@ -4352,13 +4354,13 @@
         <v>2</v>
       </c>
       <c r="F169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G169">
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>24.52</v>
       </c>
@@ -4366,7 +4368,7 @@
         <v>3.48</v>
       </c>
       <c r="C170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D170" t="s">
         <v>1</v>
@@ -4375,13 +4377,13 @@
         <v>2</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G170">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>20.76</v>
       </c>
@@ -4389,7 +4391,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D171" t="s">
         <v>1</v>
@@ -4398,13 +4400,13 @@
         <v>2</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G171">
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>31.71</v>
       </c>
@@ -4412,7 +4414,7 @@
         <v>4.5</v>
       </c>
       <c r="C172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D172" t="s">
         <v>1</v>
@@ -4421,13 +4423,13 @@
         <v>2</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G172">
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>50.81</v>
       </c>
@@ -4435,7 +4437,7 @@
         <v>10</v>
       </c>
       <c r="C173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D173" t="s">
         <v>4</v>
@@ -4444,13 +4446,13 @@
         <v>3</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G173">
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>15.81</v>
       </c>
@@ -4458,7 +4460,7 @@
         <v>3.16</v>
       </c>
       <c r="C174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D174" t="s">
         <v>4</v>
@@ -4467,13 +4469,13 @@
         <v>3</v>
       </c>
       <c r="F174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G174">
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>7.25</v>
       </c>
@@ -4481,7 +4483,7 @@
         <v>5.15</v>
       </c>
       <c r="C175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D175" t="s">
         <v>4</v>
@@ -4490,13 +4492,13 @@
         <v>2</v>
       </c>
       <c r="F175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G175">
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>31.85</v>
       </c>
@@ -4504,7 +4506,7 @@
         <v>3.18</v>
       </c>
       <c r="C176" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D176" t="s">
         <v>4</v>
@@ -4513,13 +4515,13 @@
         <v>2</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G176">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>16.82</v>
       </c>
@@ -4527,7 +4529,7 @@
         <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D177" t="s">
         <v>4</v>
@@ -4536,13 +4538,13 @@
         <v>2</v>
       </c>
       <c r="F177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G177">
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>32.9</v>
       </c>
@@ -4550,7 +4552,7 @@
         <v>3.11</v>
       </c>
       <c r="C178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D178" t="s">
         <v>4</v>
@@ -4559,13 +4561,13 @@
         <v>2</v>
       </c>
       <c r="F178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G178">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>17.89</v>
       </c>
@@ -4573,7 +4575,7 @@
         <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D179" t="s">
         <v>4</v>
@@ -4582,13 +4584,13 @@
         <v>2</v>
       </c>
       <c r="F179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G179">
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>14.48</v>
       </c>
@@ -4596,7 +4598,7 @@
         <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D180" t="s">
         <v>4</v>
@@ -4605,13 +4607,13 @@
         <v>2</v>
       </c>
       <c r="F180" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G180">
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>34.630000000000003</v>
       </c>
@@ -4619,7 +4621,7 @@
         <v>3.55</v>
       </c>
       <c r="C181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D181" t="s">
         <v>4</v>
@@ -4628,13 +4630,13 @@
         <v>2</v>
       </c>
       <c r="F181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G181">
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>34.65</v>
       </c>
@@ -4642,7 +4644,7 @@
         <v>3.68</v>
       </c>
       <c r="C182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D182" t="s">
         <v>4</v>
@@ -4651,13 +4653,13 @@
         <v>2</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G182">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>23.33</v>
       </c>
@@ -4665,7 +4667,7 @@
         <v>5.65</v>
       </c>
       <c r="C183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D183" t="s">
         <v>4</v>
@@ -4674,13 +4676,13 @@
         <v>2</v>
       </c>
       <c r="F183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G183">
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>45.35</v>
       </c>
@@ -4688,7 +4690,7 @@
         <v>3.5</v>
       </c>
       <c r="C184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D184" t="s">
         <v>4</v>
@@ -4697,13 +4699,13 @@
         <v>2</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G184">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>23.17</v>
       </c>
@@ -4711,7 +4713,7 @@
         <v>6.5</v>
       </c>
       <c r="C185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D185" t="s">
         <v>4</v>
@@ -4720,13 +4722,13 @@
         <v>2</v>
       </c>
       <c r="F185" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G185">
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>40.549999999999997</v>
       </c>
@@ -4734,7 +4736,7 @@
         <v>3</v>
       </c>
       <c r="C186" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D186" t="s">
         <v>4</v>
@@ -4743,13 +4745,13 @@
         <v>2</v>
       </c>
       <c r="F186" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G186">
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>20.69</v>
       </c>
@@ -4757,7 +4759,7 @@
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D187" t="s">
         <v>1</v>
@@ -4766,13 +4768,13 @@
         <v>2</v>
       </c>
       <c r="F187" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G187">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>30.46</v>
       </c>
@@ -4780,7 +4782,7 @@
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D188" t="s">
         <v>4</v>
@@ -4789,13 +4791,13 @@
         <v>2</v>
       </c>
       <c r="F188" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G188">
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>23.1</v>
       </c>
@@ -4803,7 +4805,7 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D189" t="s">
         <v>4</v>
@@ -4812,13 +4814,13 @@
         <v>2</v>
       </c>
       <c r="F189" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G189">
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>15.69</v>
       </c>
@@ -4826,7 +4828,7 @@
         <v>1.5</v>
       </c>
       <c r="C190" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D190" t="s">
         <v>4</v>
@@ -4835,13 +4837,13 @@
         <v>2</v>
       </c>
       <c r="F190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G190">
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>26.59</v>
       </c>
@@ -4849,7 +4851,7 @@
         <v>3.41</v>
       </c>
       <c r="C191" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D191" t="s">
         <v>4</v>
@@ -4858,13 +4860,13 @@
         <v>3</v>
       </c>
       <c r="F191" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G191">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>38.729999999999997</v>
       </c>
@@ -4872,7 +4874,7 @@
         <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D192" t="s">
         <v>4</v>
@@ -4881,13 +4883,13 @@
         <v>3</v>
       </c>
       <c r="F192" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G192">
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>24.27</v>
       </c>
@@ -4895,7 +4897,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="C193" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D193" t="s">
         <v>4</v>
@@ -4904,13 +4906,13 @@
         <v>3</v>
       </c>
       <c r="F193" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G193">
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>30.06</v>
       </c>
@@ -4918,7 +4920,7 @@
         <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D194" t="s">
         <v>4</v>
@@ -4927,13 +4929,13 @@
         <v>3</v>
       </c>
       <c r="F194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G194">
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>25.89</v>
       </c>
@@ -4941,7 +4943,7 @@
         <v>5.16</v>
       </c>
       <c r="C195" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D195" t="s">
         <v>4</v>
@@ -4950,13 +4952,13 @@
         <v>3</v>
       </c>
       <c r="F195" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G195">
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>48.33</v>
       </c>
@@ -4964,7 +4966,7 @@
         <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D196" t="s">
         <v>1</v>
@@ -4973,13 +4975,13 @@
         <v>3</v>
       </c>
       <c r="F196" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G196">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>28.15</v>
       </c>
@@ -4987,7 +4989,7 @@
         <v>3</v>
       </c>
       <c r="C197" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D197" t="s">
         <v>4</v>
@@ -4996,13 +4998,13 @@
         <v>3</v>
       </c>
       <c r="F197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G197">
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>11.59</v>
       </c>
@@ -5010,7 +5012,7 @@
         <v>1.5</v>
       </c>
       <c r="C198" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D198" t="s">
         <v>4</v>
@@ -5019,13 +5021,13 @@
         <v>3</v>
       </c>
       <c r="F198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G198">
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>7.74</v>
       </c>
@@ -5033,7 +5035,7 @@
         <v>1.44</v>
       </c>
       <c r="C199" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D199" t="s">
         <v>4</v>
@@ -5042,13 +5044,13 @@
         <v>3</v>
       </c>
       <c r="F199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G199">
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>20.45</v>
       </c>
@@ -5056,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="C200" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D200" t="s">
         <v>1</v>
@@ -5065,13 +5067,13 @@
         <v>3</v>
       </c>
       <c r="F200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G200">
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>13.28</v>
       </c>
@@ -5079,7 +5081,7 @@
         <v>2.72</v>
       </c>
       <c r="C201" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D201" t="s">
         <v>1</v>
@@ -5088,13 +5090,13 @@
         <v>3</v>
       </c>
       <c r="F201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G201">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>24.01</v>
       </c>
@@ -5102,7 +5104,7 @@
         <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D202" t="s">
         <v>4</v>
@@ -5111,13 +5113,13 @@
         <v>3</v>
       </c>
       <c r="F202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G202">
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>15.69</v>
       </c>
@@ -5125,7 +5127,7 @@
         <v>3</v>
       </c>
       <c r="C203" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D203" t="s">
         <v>4</v>
@@ -5134,13 +5136,13 @@
         <v>3</v>
       </c>
       <c r="F203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G203">
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>11.61</v>
       </c>
@@ -5148,7 +5150,7 @@
         <v>3.39</v>
       </c>
       <c r="C204" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D204" t="s">
         <v>1</v>
@@ -5157,13 +5159,13 @@
         <v>3</v>
       </c>
       <c r="F204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G204">
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>10.77</v>
       </c>
@@ -5171,7 +5173,7 @@
         <v>1.47</v>
       </c>
       <c r="C205" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D205" t="s">
         <v>1</v>
@@ -5180,13 +5182,13 @@
         <v>3</v>
       </c>
       <c r="F205" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G205">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>15.53</v>
       </c>
@@ -5194,7 +5196,7 @@
         <v>3</v>
       </c>
       <c r="C206" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D206" t="s">
         <v>4</v>
@@ -5203,13 +5205,13 @@
         <v>3</v>
       </c>
       <c r="F206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G206">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>10.07</v>
       </c>
@@ -5217,7 +5219,7 @@
         <v>1.25</v>
       </c>
       <c r="C207" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D207" t="s">
         <v>1</v>
@@ -5226,13 +5228,13 @@
         <v>3</v>
       </c>
       <c r="F207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G207">
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>12.6</v>
       </c>
@@ -5240,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D208" t="s">
         <v>4</v>
@@ -5249,13 +5251,13 @@
         <v>3</v>
       </c>
       <c r="F208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G208">
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>32.83</v>
       </c>
@@ -5263,7 +5265,7 @@
         <v>1.17</v>
       </c>
       <c r="C209" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D209" t="s">
         <v>4</v>
@@ -5272,13 +5274,13 @@
         <v>3</v>
       </c>
       <c r="F209" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G209">
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>29.03</v>
       </c>
@@ -5286,7 +5288,7 @@
         <v>5.92</v>
       </c>
       <c r="C210" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D210" t="s">
         <v>1</v>
@@ -5295,13 +5297,13 @@
         <v>3</v>
       </c>
       <c r="F210" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G210">
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>22.67</v>
       </c>
@@ -5309,7 +5311,7 @@
         <v>2</v>
       </c>
       <c r="C211" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D211" t="s">
         <v>4</v>
@@ -5318,13 +5320,13 @@
         <v>3</v>
       </c>
       <c r="F211" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G211">
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>17.82</v>
       </c>
@@ -5332,7 +5334,7 @@
         <v>1.75</v>
       </c>
       <c r="C212" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D212" t="s">
         <v>1</v>
@@ -5341,13 +5343,13 @@
         <v>3</v>
       </c>
       <c r="F212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G212">
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>27.2</v>
       </c>
@@ -5355,7 +5357,7 @@
         <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D213" t="s">
         <v>1</v>
@@ -5364,13 +5366,13 @@
         <v>5</v>
       </c>
       <c r="F213" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G213">
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>22.76</v>
       </c>
@@ -5378,7 +5380,7 @@
         <v>3</v>
       </c>
       <c r="C214" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D214" t="s">
         <v>1</v>
@@ -5387,13 +5389,13 @@
         <v>5</v>
       </c>
       <c r="F214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G214">
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>17.29</v>
       </c>
@@ -5401,7 +5403,7 @@
         <v>2.71</v>
       </c>
       <c r="C215" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D215" t="s">
         <v>1</v>
@@ -5410,13 +5412,13 @@
         <v>5</v>
       </c>
       <c r="F215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G215">
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>19.440000000000001</v>
       </c>
@@ -5424,7 +5426,7 @@
         <v>3</v>
       </c>
       <c r="C216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D216" t="s">
         <v>4</v>
@@ -5433,13 +5435,13 @@
         <v>5</v>
       </c>
       <c r="F216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G216">
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>16.66</v>
       </c>
@@ -5447,7 +5449,7 @@
         <v>3.4</v>
       </c>
       <c r="C217" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D217" t="s">
         <v>1</v>
@@ -5456,13 +5458,13 @@
         <v>5</v>
       </c>
       <c r="F217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G217">
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>32.68</v>
       </c>
@@ -5470,7 +5472,7 @@
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D218" t="s">
         <v>4</v>
@@ -5479,13 +5481,13 @@
         <v>5</v>
       </c>
       <c r="F218" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G218">
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>15.98</v>
       </c>
@@ -5493,7 +5495,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="C219" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D219" t="s">
         <v>1</v>
@@ -5502,13 +5504,13 @@
         <v>5</v>
       </c>
       <c r="F219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G219">
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>13.03</v>
       </c>
@@ -5516,7 +5518,7 @@
         <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D220" t="s">
         <v>1</v>
@@ -5525,13 +5527,13 @@
         <v>5</v>
       </c>
       <c r="F220" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G220">
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>18.28</v>
       </c>
@@ -5539,7 +5541,7 @@
         <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D221" t="s">
         <v>1</v>
@@ -5548,13 +5550,13 @@
         <v>5</v>
       </c>
       <c r="F221" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G221">
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>24.71</v>
       </c>
@@ -5562,7 +5564,7 @@
         <v>5.85</v>
       </c>
       <c r="C222" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D222" t="s">
         <v>1</v>
@@ -5571,13 +5573,13 @@
         <v>5</v>
       </c>
       <c r="F222" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G222">
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>21.16</v>
       </c>
@@ -5585,7 +5587,7 @@
         <v>3</v>
       </c>
       <c r="C223" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D223" t="s">
         <v>1</v>
@@ -5594,13 +5596,13 @@
         <v>5</v>
       </c>
       <c r="F223" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G223">
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>11.69</v>
       </c>
@@ -5608,7 +5610,7 @@
         <v>2.31</v>
       </c>
       <c r="C224" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D224" t="s">
         <v>1</v>
@@ -5617,13 +5619,13 @@
         <v>5</v>
       </c>
       <c r="F224" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G224">
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>14.26</v>
       </c>
@@ -5631,7 +5633,7 @@
         <v>2.5</v>
       </c>
       <c r="C225" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D225" t="s">
         <v>1</v>
@@ -5640,13 +5642,13 @@
         <v>5</v>
       </c>
       <c r="F225" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G225">
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>15.95</v>
       </c>
@@ -5654,7 +5656,7 @@
         <v>2</v>
       </c>
       <c r="C226" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D226" t="s">
         <v>1</v>
@@ -5663,13 +5665,13 @@
         <v>5</v>
       </c>
       <c r="F226" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G226">
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>8.52</v>
       </c>
@@ -5677,7 +5679,7 @@
         <v>1.48</v>
       </c>
       <c r="C227" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D227" t="s">
         <v>1</v>
@@ -5686,13 +5688,13 @@
         <v>5</v>
       </c>
       <c r="F227" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G227">
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>22.82</v>
       </c>
@@ -5700,7 +5702,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C228" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D228" t="s">
         <v>1</v>
@@ -5709,13 +5711,13 @@
         <v>5</v>
       </c>
       <c r="F228" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G228">
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>19.079999999999998</v>
       </c>
@@ -5723,7 +5725,7 @@
         <v>1.5</v>
       </c>
       <c r="C229" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D229" t="s">
         <v>1</v>
@@ -5732,13 +5734,13 @@
         <v>5</v>
       </c>
       <c r="F229" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G229">
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>16</v>
       </c>
@@ -5746,7 +5748,7 @@
         <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D230" t="s">
         <v>4</v>
@@ -5755,13 +5757,13 @@
         <v>5</v>
       </c>
       <c r="F230" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G230">
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>34.299999999999997</v>
       </c>
@@ -5769,7 +5771,7 @@
         <v>6.7</v>
       </c>
       <c r="C231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D231" t="s">
         <v>1</v>
@@ -5778,13 +5780,13 @@
         <v>5</v>
       </c>
       <c r="F231" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G231">
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>41.19</v>
       </c>
@@ -5792,7 +5794,7 @@
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D232" t="s">
         <v>1</v>
@@ -5801,13 +5803,13 @@
         <v>5</v>
       </c>
       <c r="F232" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G232">
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>9.7799999999999994</v>
       </c>
@@ -5815,7 +5817,7 @@
         <v>1.73</v>
       </c>
       <c r="C233" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D233" t="s">
         <v>1</v>
@@ -5824,13 +5826,13 @@
         <v>5</v>
       </c>
       <c r="F233" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G233">
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>7.51</v>
       </c>
@@ -5838,7 +5840,7 @@
         <v>2</v>
       </c>
       <c r="C234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D234" t="s">
         <v>1</v>
@@ -5847,13 +5849,13 @@
         <v>5</v>
       </c>
       <c r="F234" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G234">
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>28.44</v>
       </c>
@@ -5861,7 +5863,7 @@
         <v>2.56</v>
       </c>
       <c r="C235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D235" t="s">
         <v>4</v>
@@ -5870,13 +5872,13 @@
         <v>5</v>
       </c>
       <c r="F235" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G235">
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>15.48</v>
       </c>
@@ -5884,7 +5886,7 @@
         <v>2.02</v>
       </c>
       <c r="C236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D236" t="s">
         <v>4</v>
@@ -5893,13 +5895,13 @@
         <v>5</v>
       </c>
       <c r="F236" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G236">
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>16.579999999999998</v>
       </c>
@@ -5907,7 +5909,7 @@
         <v>4</v>
       </c>
       <c r="C237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D237" t="s">
         <v>4</v>
@@ -5916,13 +5918,13 @@
         <v>5</v>
       </c>
       <c r="F237" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G237">
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>7.56</v>
       </c>
@@ -5930,7 +5932,7 @@
         <v>1.44</v>
       </c>
       <c r="C238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D238" t="s">
         <v>1</v>
@@ -5939,13 +5941,13 @@
         <v>5</v>
       </c>
       <c r="F238" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G238">
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>10.34</v>
       </c>
@@ -5953,7 +5955,7 @@
         <v>2</v>
       </c>
       <c r="C239" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D239" t="s">
         <v>4</v>
@@ -5962,13 +5964,13 @@
         <v>5</v>
       </c>
       <c r="F239" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G239">
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>13.51</v>
       </c>
@@ -5976,7 +5978,7 @@
         <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D240" t="s">
         <v>4</v>
@@ -5985,13 +5987,13 @@
         <v>5</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G240">
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>18.71</v>
       </c>
@@ -5999,7 +6001,7 @@
         <v>4</v>
       </c>
       <c r="C241" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D241" t="s">
         <v>4</v>
@@ -6008,13 +6010,13 @@
         <v>5</v>
       </c>
       <c r="F241" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G241">
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>20.53</v>
       </c>
@@ -6022,7 +6024,7 @@
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D242" t="s">
         <v>4</v>
@@ -6031,13 +6033,13 @@
         <v>5</v>
       </c>
       <c r="F242" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G242">
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>12.16</v>
       </c>
@@ -6045,7 +6047,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C243" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D243" t="s">
         <v>4</v>
@@ -6054,13 +6056,13 @@
         <v>6</v>
       </c>
       <c r="F243" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G243">
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>8.58</v>
       </c>
@@ -6068,7 +6070,7 @@
         <v>1.92</v>
       </c>
       <c r="C244" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D244" t="s">
         <v>4</v>
@@ -6077,13 +6079,13 @@
         <v>6</v>
       </c>
       <c r="F244" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G244">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>13.42</v>
       </c>
@@ -6091,7 +6093,7 @@
         <v>1.58</v>
       </c>
       <c r="C245" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D245" t="s">
         <v>4</v>
@@ -6100,14 +6102,14 @@
         <v>6</v>
       </c>
       <c r="F245" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G245">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H245">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H245">
     <sortCondition ref="C228"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
